--- a/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
+++ b/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>frequency (Hz)</t>
   </si>
@@ -109,6 +109,977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-2.9425512624072931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.555040860742916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0587174040235823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8107364555093035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3006551022384691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6210935717446278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9368115611225942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9382002601611283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0980391997148637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.735791130987419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.484280094114613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2462201214734057</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3837281543841735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3871575279342565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.9281808954400201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121841648"/>
+        <c:axId val="121837168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121841648"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121837168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121837168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121841648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16807</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218513</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:S30"/>
+  <dimension ref="C3:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,15 +1457,19 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="e">
+      <c r="D5" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F5" s="1">
         <f>E5/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="1" t="e">
+        <v>0.71264367816091956</v>
+      </c>
+      <c r="G5" s="1">
         <f>20*LOG10(F5)</f>
-        <v>#DIV/0!</v>
+        <v>-2.9425512624072931</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -527,15 +1502,19 @@
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="e">
+      <c r="D6" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F6" s="1">
         <f>E6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="1" t="e">
+        <v>1.5057471264367819</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" ref="G6:G30" si="0">20*LOG10(F6)</f>
-        <v>#DIV/0!</v>
+        <v>3.555040860742916</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -566,17 +1545,21 @@
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="e">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" ref="F7:F25" si="3">E7/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>2.8374999999999999</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.0587174040235823</v>
       </c>
       <c r="I7" s="1">
         <v>25</v>
@@ -650,15 +1633,19 @@
       <c r="C9" s="1">
         <v>75</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="e">
+      <c r="D9" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="1" t="e">
+        <v>3.0941176470588236</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.8107364555093035</v>
       </c>
       <c r="I9" s="1">
         <v>75</v>
@@ -691,15 +1678,19 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="e">
+      <c r="D10" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="1" t="e">
+        <v>2.9176470588235293</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.3006551022384691</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -814,15 +1805,19 @@
       <c r="C13" s="1">
         <v>400</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="e">
+      <c r="D13" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.517241379310345</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.6210935717446278</v>
       </c>
       <c r="I13" s="1">
         <v>400</v>
@@ -855,15 +1850,19 @@
       <c r="C14" s="1">
         <v>500</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="e">
+      <c r="D14" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="1" t="e">
+        <v>1.4022988505747127</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.9368115611225942</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
@@ -937,15 +1936,19 @@
       <c r="C16" s="1">
         <v>1000</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="e">
+      <c r="D16" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="1" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.9382002601611283</v>
       </c>
       <c r="I16" s="1">
         <v>1000</v>
@@ -1019,15 +2022,19 @@
       <c r="C18" s="1">
         <v>2500</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="e">
+      <c r="D18" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="1" t="e">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.0980391997148637</v>
       </c>
       <c r="I18" s="1">
         <v>2500</v>
@@ -1101,15 +2108,19 @@
       <c r="C20" s="1">
         <v>5000</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="e">
+      <c r="D20" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="1" t="e">
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.735791130987419</v>
       </c>
       <c r="I20" s="1">
         <v>5000</v>
@@ -1224,15 +2235,19 @@
       <c r="C23" s="1">
         <v>10000</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="e">
+      <c r="D23" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="1" t="e">
+        <v>2.6559139784946235</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.484280094114613</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
@@ -1306,15 +2321,19 @@
       <c r="C25" s="1">
         <v>50000</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="e">
+      <c r="D25" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>2.0526315789473686</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.2462201214734057</v>
       </c>
       <c r="I25" s="1">
         <v>50000</v>
@@ -1347,15 +2366,19 @@
       <c r="C26" s="1">
         <v>100000</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="e">
+      <c r="D26" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F26" s="1">
         <f>E26/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="1" t="e">
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="G26" s="1">
         <f>20*LOG10(F26)</f>
-        <v>#DIV/0!</v>
+        <v>2.3837281543841735</v>
       </c>
       <c r="I26" s="1">
         <v>100000</v>
@@ -1429,15 +2452,19 @@
       <c r="C28" s="1">
         <v>300000</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="e">
+      <c r="D28" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" ref="F28:F30" si="6">E28/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="1" t="e">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-3.3871575279342565</v>
       </c>
       <c r="I28" s="1">
         <v>300000</v>
@@ -1470,15 +2497,19 @@
       <c r="C29" s="1">
         <v>400000</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="e">
+      <c r="D29" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="1" t="e">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-4.9281808954400201</v>
       </c>
       <c r="I29" s="1">
         <v>400000</v>
@@ -1547,6 +2578,315 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>E33/D33</f>
+        <v>0.71264367816091956</v>
+      </c>
+      <c r="G33" s="1">
+        <f>20*LOG10(F33)</f>
+        <v>-2.9425512624072931</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f>E34/D34</f>
+        <v>1.5057471264367819</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G35" si="9">20*LOG10(F34)</f>
+        <v>3.555040860742916</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35" si="10">E35/D35</f>
+        <v>2.8374999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="9"/>
+        <v>9.0587174040235823</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36:F47" si="11">E36/D36</f>
+        <v>3.0941176470588236</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36:G47" si="12">20*LOG10(F36)</f>
+        <v>9.8107364555093035</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="11"/>
+        <v>2.9176470588235293</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="12"/>
+        <v>9.3006551022384691</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>400</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="11"/>
+        <v>1.517241379310345</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="12"/>
+        <v>3.6210935717446278</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>500</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="11"/>
+        <v>1.4022988505747127</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9368115611225942</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9382002601611283</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="12"/>
+        <v>3.0980391997148637</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="12"/>
+        <v>5.735791130987419</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6559139784946235</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="12"/>
+        <v>8.484280094114613</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="11"/>
+        <v>2.0526315789473686</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="12"/>
+        <v>6.2462201214734057</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3837281543841735</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="11"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.3871575279342565</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="12"/>
+        <v>-4.9281808954400201</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1556,5 +2896,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
+++ b/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>frequency (Hz)</t>
   </si>
@@ -88,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -126,6 +127,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode plot treble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and bass off</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -160,14 +191,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$32</c:f>
+              <c:f>Sheet1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -202,10 +233,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$47</c:f>
+              <c:f>Sheet1!$I$5:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -213,42 +244,69 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
@@ -256,59 +314,86 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$33:$G$47</c:f>
+              <c:f>Sheet1!$M$5:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-2.9425512624072931</c:v>
+                  <c:v>-3.0418196530382948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.555040860742916</c:v>
+                  <c:v>-9.9268390631001957E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0587174040235823</c:v>
+                  <c:v>0.38185883818044752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8107364555093035</c:v>
+                  <c:v>0.48000552807533026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3006551022384691</c:v>
+                  <c:v>0.3861031039077325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6210935717446278</c:v>
+                  <c:v>0.3861031039077325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9368115611225942</c:v>
+                  <c:v>0.29117440341850015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9382002601611283</c:v>
+                  <c:v>0.19519674578312479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0980391997148637</c:v>
+                  <c:v>0.29117440341850015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.735791130987419</c:v>
+                  <c:v>0.19519674578312479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.484280094114613</c:v>
+                  <c:v>0.3861031039077325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2462201214734057</c:v>
+                  <c:v>0.19519674578312479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3837281543841735</c:v>
+                  <c:v>9.7050055888242032E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.3871575279342565</c:v>
+                  <c:v>0.19519674578312479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.9281808954400201</c:v>
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.7050055888241449E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19519674578312524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.19302771352361661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.19519674578312524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.5977657635374164E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.29117440341849943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.68737803262524977</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9787802602413285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.2521618576288747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -318,11 +403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121841648"/>
-        <c:axId val="121837168"/>
+        <c:axId val="131710080"/>
+        <c:axId val="131709520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121841648"/>
+        <c:axId val="131710080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -343,6 +428,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -380,14 +521,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121837168"/>
+        <c:crossAx val="131709520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121837168"/>
+        <c:axId val="131709520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -405,6 +548,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -442,7 +646,1181 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121841648"/>
+        <c:crossAx val="131710080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode plot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> maximum boost</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-2.3470234650120201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6866477669693465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2761282360918607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.07100730320226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8765389644503028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2303236277817273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3670915947265092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4772808170336393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3174418774799048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4235717546998634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5502817336032373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1939754010312633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0077171764155892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4884819937643656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5010777898313563</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5059714078183593</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.353681337355896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9710000405424974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.268831148569399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7421095125252695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0989394708594897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2856893667467673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.9876926427182351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4247751252253833</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0084000461778793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131715120"/>
+        <c:axId val="131715680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131715120"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131715680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131715680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131715120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> plot maximum attenuation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-3.3266284353304991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.910253356282996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.5193746454456232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2648286954916266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4726132101604894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3681573889868428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.71995306543037696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1996844181320179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.3994216186124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5050190483838484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5633541347699684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.6939714779491233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.6939714779491233</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.5306495922971446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.7899491355844974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.129106618285737</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.5857875220397516</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1190281065829994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4171171452698736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131717920"/>
+        <c:axId val="131718480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131717920"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131718480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131718480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131717920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -531,6 +1909,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1047,20 +2505,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16807</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>34738</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>218513</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,6 +3564,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1371,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,31 +3930,33 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -1458,44 +4010,52 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="1">
         <f>E5/D5</f>
-        <v>0.71264367816091956</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="G5" s="1">
         <f>20*LOG10(F5)</f>
-        <v>-2.9425512624072931</v>
+        <v>-3.3266284353304991</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="J5" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L5" s="1">
         <f>K5/J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="1" t="e">
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="M5" s="1">
         <f>20*LOG10(L5)</f>
-        <v>#DIV/0!</v>
+        <v>-3.0418196530382948</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="e">
+      <c r="P5" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="R5" s="1">
         <f>Q5/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="1" t="e">
+        <v>0.76321839080459775</v>
+      </c>
+      <c r="S5" s="1">
         <f>20*LOG10(R5)</f>
-        <v>#DIV/0!</v>
+        <v>-2.3470234650120201</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
@@ -1503,130 +4063,158 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="1">
         <f>E6/D6</f>
-        <v>1.5057471264367819</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G30" si="0">20*LOG10(F6)</f>
-        <v>3.555040860742916</v>
+        <v>-4.910253356282996</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="e">
+      <c r="J6" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L6" s="1">
         <f>K6/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="1" t="e">
-        <f t="shared" ref="M6:M30" si="1">20*LOG10(L6)</f>
-        <v>#DIV/0!</v>
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M25" si="1">20*LOG10(L6)</f>
+        <v>-9.9268390631001957E-2</v>
       </c>
       <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="e">
+      <c r="P6" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="R6" s="1">
         <f>Q6/P6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="1" t="e">
+        <v>1.5287356321839083</v>
+      </c>
+      <c r="S6" s="1">
         <f t="shared" ref="S6:S30" si="2">20*LOG10(R6)</f>
-        <v>#DIV/0!</v>
+        <v>3.6866477669693465</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>0.08</v>
       </c>
       <c r="E7" s="1">
-        <v>0.22700000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F25" si="3">E7/D7</f>
-        <v>2.8374999999999999</v>
+        <f t="shared" ref="F7:F18" si="3">E7/D7</f>
+        <v>0.375</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>9.0587174040235823</v>
+        <v>-8.5193746454456232</v>
       </c>
       <c r="I7" s="1">
         <v>25</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="e">
+      <c r="J7" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L25" si="4">K7/J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="1" t="e">
+        <v>1.0449438202247192</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.38185883818044752</v>
       </c>
       <c r="O7" s="1">
         <v>25</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="e">
+      <c r="P7" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" ref="R7:R25" si="5">Q7/P7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="1" t="e">
+        <v>2.5930232558139537</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.2761282360918607</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="e">
+      <c r="D8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.54545454545454553</v>
+      </c>
+      <c r="G8" s="1">
+        <f>20*LOG10(F8)</f>
+        <v>-5.2648286954916266</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="e">
+      <c r="J8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="1" t="e">
+        <v>1.0568181818181819</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.48000552807533026</v>
       </c>
       <c r="O8" s="1">
         <v>50</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="e">
+      <c r="P8" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="1" t="e">
+        <v>3.1882352941176468</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>10.07100730320226</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
@@ -1634,44 +4222,52 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.26300000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>3.0941176470588236</v>
+        <v>0.67045454545454541</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>9.8107364555093035</v>
+        <v>-3.4726132101604894</v>
       </c>
       <c r="I9" s="1">
         <v>75</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="e">
+      <c r="J9" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="1" t="e">
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.3861031039077325</v>
       </c>
       <c r="O9" s="1">
         <v>75</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="e">
+      <c r="P9" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="1" t="e">
+        <v>3.1176470588235294</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.8765389644503028</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
@@ -1679,126 +4275,158 @@
         <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.248</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>2.9176470588235293</v>
+        <v>0.76136363636363646</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>9.3006551022384691</v>
+        <v>-2.3681573889868428</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="e">
+      <c r="J10" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="1" t="e">
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.3861031039077325</v>
       </c>
       <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="e">
+      <c r="P10" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="1" t="e">
+        <v>2.8941176470588235</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.2303236277817273</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="e">
+      <c r="D11" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.92045454545454553</v>
+      </c>
+      <c r="G11" s="1">
+        <f>20*LOG10(F11)</f>
+        <v>-0.71995306543037696</v>
       </c>
       <c r="I11" s="1">
         <v>200</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="e">
+      <c r="J11" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="1" t="e">
+        <v>1.0340909090909092</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.29117440341850015</v>
       </c>
       <c r="O11" s="1">
         <v>200</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="e">
+      <c r="P11" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="1" t="e">
+        <v>2.0813953488372094</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.3670915947265092</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>300</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="e">
+      <c r="D12" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="1" t="e">
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.1996844181320179</v>
       </c>
       <c r="I12" s="1">
         <v>300</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="e">
+      <c r="J12" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="O12" s="1">
         <v>300</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="e">
+      <c r="P12" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="1" t="e">
+        <v>1.6744186046511629</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.4772808170336393</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
@@ -1806,44 +4434,52 @@
         <v>400</v>
       </c>
       <c r="D13" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.13200000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>1.517241379310345</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>3.6210935717446278</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>400</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="e">
+      <c r="J13" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="1" t="e">
+        <v>1.0340909090909092</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.29117440341850015</v>
       </c>
       <c r="O13" s="1">
         <v>400</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="e">
+      <c r="P13" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="1" t="e">
+        <v>1.4651162790697676</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.3174418774799048</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
@@ -1851,85 +4487,105 @@
         <v>500</v>
       </c>
       <c r="D14" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.122</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>1.4022988505747127</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>2.9368115611225942</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="e">
+      <c r="J14" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="O14" s="1">
         <v>500</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="e">
+      <c r="P14" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="1" t="e">
+        <v>1.3218390804597702</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.4235717546998634</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>750</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="e">
+      <c r="D15" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>750</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="e">
+      <c r="J15" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="1" t="e">
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.3861031039077325</v>
       </c>
       <c r="O15" s="1">
         <v>750</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="e">
+      <c r="P15" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="1" t="e">
+        <v>1.1954022988505748</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5502817336032373</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
@@ -1940,82 +4596,102 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.11</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>1.9382002601611283</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>1000</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="e">
+      <c r="J16" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="O16" s="1">
         <v>1000</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="e">
+      <c r="P16" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="R16" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="1" t="e">
+        <v>1.2873563218390807</v>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.1939754010312633</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>2000</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="e">
+      <c r="D17" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>2000</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="e">
+      <c r="J17" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="1" t="e">
+        <v>1.0112359550561798</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.7050055888242032E-2</v>
       </c>
       <c r="O17" s="1">
         <v>2000</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="e">
+      <c r="P17" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="1" t="e">
+        <v>1.413793103448276</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.0077171764155892</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
@@ -2023,519 +4699,606 @@
         <v>2500</v>
       </c>
       <c r="D18" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.13</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>1.4285714285714286</v>
+        <v>0.95505617977528101</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>3.0980391997148637</v>
+        <v>-0.3994216186124</v>
       </c>
       <c r="I18" s="1">
         <v>2500</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="e">
+      <c r="J18" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="O18" s="1">
         <v>2500</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="e">
+      <c r="P18" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="1" t="e">
+        <v>1.4942528735632186</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.4884819937643656</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F28" si="6">E19/D19</f>
+        <v>0.84090909090909094</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19:G28" si="7">20*LOG10(F19)</f>
+        <v>-1.5050190483838484</v>
       </c>
       <c r="I19" s="1">
         <v>3000</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="e">
+      <c r="J19" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="O19" s="1">
         <v>3000</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="e">
+      <c r="P19" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="1" t="e">
+        <v>1.6790123456790125</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.5010777898313563</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="D20" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E20" s="1">
-        <v>0.18</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9354838709677418</v>
+        <f t="shared" si="6"/>
+        <v>0.74444444444444446</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>5.735791130987419</v>
+        <f t="shared" si="7"/>
+        <v>-2.5633541347699684</v>
       </c>
       <c r="I20" s="1">
         <v>5000</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="e">
+      <c r="J20" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="1" t="e">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-9.7050055888241449E-2</v>
       </c>
       <c r="O20" s="1">
         <v>5000</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="e">
+      <c r="P20" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="1" t="e">
+        <v>2.1149425287356323</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.5059714078183593</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.6939714779491233</v>
       </c>
       <c r="I21" s="1">
         <v>7500</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="e">
+      <c r="J21" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="1" t="e">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.19519674578312524</v>
       </c>
       <c r="O21" s="1">
         <v>7500</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="e">
+      <c r="P21" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="1" t="e">
+        <v>2.6162790697674421</v>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.353681337355896</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.6939714779491233</v>
       </c>
       <c r="I22" s="1">
         <v>9000</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="e">
+      <c r="J22" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="1" t="e">
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.19302771352361661</v>
       </c>
       <c r="O22" s="1">
         <v>9000</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="e">
+      <c r="P22" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="1" t="e">
+        <v>2.808988764044944</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.9710000405424974</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="D23" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.247</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6559139784946235</v>
+        <f t="shared" si="6"/>
+        <v>0.74725274725274737</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>8.484280094114613</v>
+        <f t="shared" si="7"/>
+        <v>-2.5306495922971446</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="e">
+      <c r="J23" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K23" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="1" t="e">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.19519674578312524</v>
       </c>
       <c r="O23" s="1">
         <v>10000</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="e">
+      <c r="P23" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.9069767441860468</v>
+      </c>
+      <c r="S23" s="1">
+        <f>20*LOG10(R23)</f>
+        <v>9.268831148569399</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <v>25000</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>50000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72527472527472536</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.7899491355844974</v>
       </c>
       <c r="I24" s="1">
         <v>25000</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="e">
+      <c r="J24" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="1" t="e">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-9.5977657635374164E-2</v>
       </c>
       <c r="O24" s="1">
         <v>25000</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="e">
+      <c r="P24" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="1" t="e">
+        <v>3.0697674418604657</v>
+      </c>
+      <c r="S24" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.7421095125252695</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D25" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.19500000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0526315789473686</v>
+        <f t="shared" si="6"/>
+        <v>0.78260869565217384</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2462201214734057</v>
+        <f t="shared" si="7"/>
+        <v>-2.129106618285737</v>
       </c>
       <c r="I25" s="1">
         <v>50000</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="e">
+      <c r="J25" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="1" t="e">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-0.29117440341849943</v>
       </c>
       <c r="O25" s="1">
         <v>50000</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="e">
+      <c r="P25" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="1" t="e">
+        <v>2.2643678160919545</v>
+      </c>
+      <c r="S25" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>7.0989394708594897</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D26" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.125</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F26" s="1">
-        <f>E26/D26</f>
-        <v>1.3157894736842106</v>
+        <f t="shared" si="6"/>
+        <v>0.93478260869565211</v>
       </c>
       <c r="G26" s="1">
-        <f>20*LOG10(F26)</f>
-        <v>2.3837281543841735</v>
+        <f t="shared" si="7"/>
+        <v>-0.5857875220397516</v>
       </c>
       <c r="I26" s="1">
         <v>100000</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="e">
+      <c r="J26" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L26" s="1">
         <f>K26/J26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="1" t="e">
+        <v>0.92391304347826098</v>
+      </c>
+      <c r="M26" s="1">
         <f>20*LOG10(L26)</f>
-        <v>#DIV/0!</v>
+        <v>-0.68737803262524977</v>
       </c>
       <c r="O26" s="1">
         <v>100000</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="e">
+      <c r="P26" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="R26" s="1">
         <f>Q26/P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="1" t="e">
+        <v>1.4597701149425288</v>
+      </c>
+      <c r="S26" s="1">
         <f>20*LOG10(R26)</f>
-        <v>#DIV/0!</v>
+        <v>3.2856893667467673</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="e">
-        <f>E27/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>300000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87912087912087922</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1190281065829994</v>
       </c>
       <c r="I27" s="1">
-        <v>200000</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="e">
-        <f>K27/J27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>300000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27:L28" si="8">K27/J27</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="M27" s="1">
+        <f>20*LOG10(L27)</f>
+        <v>-2.9787802602413285</v>
       </c>
       <c r="O27" s="1">
         <v>200000</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="e">
+      <c r="P27" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="R27" s="1">
         <f>Q27/P27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D28" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:F30" si="6">E28/D28</f>
-        <v>0.67708333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.84946236559139787</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.3871575279342565</v>
+        <f t="shared" si="7"/>
+        <v>-1.4171171452698736</v>
       </c>
       <c r="I28" s="1">
-        <v>300000</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="e">
-        <f t="shared" ref="L28:L30" si="7">K28/J28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>400000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="M28" s="1">
+        <f>20*LOG10(L28)</f>
+        <v>-4.2521618576288747</v>
       </c>
       <c r="O28" s="1">
         <v>300000</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="e">
-        <f t="shared" ref="R28:R30" si="8">Q28/P28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="1" t="e">
+      <c r="P28" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" ref="R28:R30" si="9">Q28/P28</f>
+        <v>0.79545454545454553</v>
+      </c>
+      <c r="S28" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-1.9876926427182351</v>
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5670103092783505</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.9281808954400201</v>
-      </c>
-      <c r="I29" s="1">
-        <v>400000</v>
-      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="O29" s="1">
         <v>400000</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="1" t="e">
+      <c r="P29" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="S29" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-3.4247751252253833</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
@@ -2545,348 +5308,219 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F30" si="10">E30/D30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="1">
-        <v>500000</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="O30" s="1">
         <v>500000</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="1" t="e">
+      <c r="P30" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="S30" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-5.0084000461778793</v>
       </c>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <f>E33/D33</f>
-        <v>0.71264367816091956</v>
-      </c>
-      <c r="G33" s="1">
-        <f>20*LOG10(F33)</f>
-        <v>-2.9425512624072931</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F34" s="1">
-        <f>E34/D34</f>
-        <v>1.5057471264367819</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G35" si="9">20*LOG10(F34)</f>
-        <v>3.555040860742916</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ref="F35" si="10">E35/D35</f>
-        <v>2.8374999999999999</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="9"/>
-        <v>9.0587174040235823</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" ref="F36:F47" si="11">E36/D36</f>
-        <v>3.0941176470588236</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ref="G36:G47" si="12">20*LOG10(F36)</f>
-        <v>9.8107364555093035</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.248</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="11"/>
-        <v>2.9176470588235293</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="12"/>
-        <v>9.3006551022384691</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>400</v>
-      </c>
-      <c r="D38" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="11"/>
-        <v>1.517241379310345</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6210935717446278</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <v>500</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="11"/>
-        <v>1.4022988505747127</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="12"/>
-        <v>2.9368115611225942</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9382002601611283</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D41" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="11"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0980391997148637</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D42" s="1">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9354838709677418</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="12"/>
-        <v>5.735791130987419</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.247</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="11"/>
-        <v>2.6559139784946235</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="12"/>
-        <v>8.484280094114613</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="11"/>
-        <v>2.0526315789473686</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="12"/>
-        <v>6.2462201214734057</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D45" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="11"/>
-        <v>1.3157894736842106</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3837281543841735</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
-        <v>300000</v>
-      </c>
-      <c r="D46" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="11"/>
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="12"/>
-        <v>-3.3871575279342565</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="11"/>
-        <v>0.5670103092783505</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="12"/>
-        <v>-4.9281808954400201</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
+++ b/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
@@ -403,11 +403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131710080"/>
-        <c:axId val="131709520"/>
+        <c:axId val="118314400"/>
+        <c:axId val="118314960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131710080"/>
+        <c:axId val="118314400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -521,12 +521,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131709520"/>
+        <c:crossAx val="118314960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131709520"/>
+        <c:axId val="118314960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -646,7 +646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131710080"/>
+        <c:crossAx val="118314400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -998,11 +998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131715120"/>
-        <c:axId val="131715680"/>
+        <c:axId val="156474288"/>
+        <c:axId val="156474848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131715120"/>
+        <c:axId val="156474288"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1121,12 +1121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131715680"/>
+        <c:crossAx val="156474848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131715680"/>
+        <c:axId val="156474848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131715120"/>
+        <c:crossAx val="156474288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,10 +1409,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$28</c:f>
+              <c:f>Sheet1!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1423,66 +1423,75 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>7500</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>9000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>25000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1490,81 +1499,90 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$28</c:f>
+              <c:f>Sheet1!$G$5:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>-3.3266284353304991</c:v>
+                  <c:v>-3.6728879389225417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.910253356282996</c:v>
+                  <c:v>-4.9864634518020958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.5193746454456232</c:v>
+                  <c:v>-7.7636034276576282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.2648286954916266</c:v>
+                  <c:v>-7.8086081378658401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.4726132101604894</c:v>
+                  <c:v>-6.3253992444143599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3681573889868428</c:v>
+                  <c:v>-5.4476962842890222</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>-3.6728879389225417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5321179195152581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.83784322656354093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.74648646047624689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.50221441166062175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.20200653808651459</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-0.71995306543037696</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1996844181320179</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.3994216186124</c:v>
+                  <c:v>-0.6133763953290382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.5050190483838484</c:v>
+                  <c:v>-1.8644864686218674</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.5633541347699684</c:v>
+                  <c:v>-2.2394751888786453</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.6939714779491233</c:v>
+                  <c:v>-3.2812034326829149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.6939714779491233</c:v>
+                  <c:v>-5.3629753853865116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.5306495922971446</c:v>
+                  <c:v>-7.0436503622272495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.7899491355844974</c:v>
+                  <c:v>-7.8167933650819723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.129106618285737</c:v>
+                  <c:v>-7.8167933650819723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.5857875220397516</c:v>
+                  <c:v>-8.3582217920531523</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.1190281065829994</c:v>
+                  <c:v>-8.0547778310761267</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.4171171452698736</c:v>
+                  <c:v>-6.3117743166981235</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.3769062458515968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.8337993881967556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.8107707389530958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131717920"/>
-        <c:axId val="131718480"/>
+        <c:axId val="156477088"/>
+        <c:axId val="156477648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131717920"/>
+        <c:axId val="156477088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1702,12 +1720,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131718480"/>
+        <c:crossAx val="156477648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131718480"/>
+        <c:axId val="156477648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131717920"/>
+        <c:crossAx val="156477088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3542,15 +3560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
+      <xdr:colOff>60104</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>705970</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>82923</xdr:rowOff>
+      <xdr:colOff>654015</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3602,15 +3620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:colOff>8148</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>49306</xdr:rowOff>
+      <xdr:colOff>209854</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3921,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,18 +4028,18 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.06</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F5" s="1">
         <f>E5/D5</f>
-        <v>0.68181818181818188</v>
+        <v>0.65517241379310354</v>
       </c>
       <c r="G5" s="1">
         <f>20*LOG10(F5)</f>
-        <v>-3.3266284353304991</v>
+        <v>-3.6728879389225417</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -4063,18 +4081,18 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F6" s="1">
         <f>E6/D6</f>
-        <v>0.56818181818181823</v>
+        <v>0.56321839080459779</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G30" si="0">20*LOG10(F6)</f>
-        <v>-4.910253356282996</v>
+        <f t="shared" ref="G6:G31" si="0">20*LOG10(F6)</f>
+        <v>-4.9864634518020958</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -4116,18 +4134,18 @@
         <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>0.08</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F18" si="3">E7/D7</f>
-        <v>0.375</v>
+        <v>0.40909090909090906</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>-8.5193746454456232</v>
+        <v>-7.7636034276576282</v>
       </c>
       <c r="I7" s="1">
         <v>25</v>
@@ -4166,21 +4184,21 @@
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>0.54545454545454553</v>
+        <v>0.40697674418604657</v>
       </c>
       <c r="G8" s="1">
         <f>20*LOG10(F8)</f>
-        <v>-5.2648286954916266</v>
+        <v>-7.8086081378658401</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
@@ -4219,21 +4237,21 @@
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>0.67045454545454541</v>
+        <v>0.48275862068965525</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4726132101604894</v>
+        <v>-6.3253992444143599</v>
       </c>
       <c r="I9" s="1">
         <v>75</v>
@@ -4272,21 +4290,21 @@
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>0.76136363636363646</v>
+        <v>0.53409090909090917</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3681573889868428</v>
+        <v>-5.4476962842890222</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -4325,21 +4343,21 @@
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>8.1000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>0.92045454545454553</v>
+        <v>0.65517241379310354</v>
       </c>
       <c r="G11" s="1">
         <f>20*LOG10(F11)</f>
-        <v>-0.71995306543037696</v>
+        <v>-3.6728879389225417</v>
       </c>
       <c r="I11" s="1">
         <v>200</v>
@@ -4378,21 +4396,21 @@
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>0.97727272727272729</v>
+        <v>0.74712643678160928</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.1996844181320179</v>
+        <v>-2.5321179195152581</v>
       </c>
       <c r="I12" s="1">
         <v>300</v>
@@ -4431,21 +4449,21 @@
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.90804597701149437</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.83784322656354093</v>
       </c>
       <c r="I13" s="1">
         <v>400</v>
@@ -4484,21 +4502,21 @@
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.91764705882352937</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.74648646047624689</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
@@ -4537,21 +4555,21 @@
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="D15" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.94382022471910121</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.50221441166062175</v>
       </c>
       <c r="I15" s="1">
         <v>750</v>
@@ -4590,21 +4608,21 @@
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D16" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9770114942528737</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.20200653808651459</v>
       </c>
       <c r="I16" s="1">
         <v>1000</v>
@@ -4643,21 +4661,21 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="D17" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.92045454545454553</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.71995306543037696</v>
       </c>
       <c r="I17" s="1">
         <v>2000</v>
@@ -4696,21 +4714,21 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>0.95505617977528101</v>
+        <v>0.93181818181818188</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.3994216186124</v>
+        <v>-0.6133763953290382</v>
       </c>
       <c r="I18" s="1">
         <v>2500</v>
@@ -4749,21 +4767,21 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F28" si="6">E19/D19</f>
-        <v>0.84090909090909094</v>
+        <v>0.80681818181818177</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G28" si="7">20*LOG10(F19)</f>
-        <v>-1.5050190483838484</v>
+        <v>-1.8644864686218674</v>
       </c>
       <c r="I19" s="1">
         <v>3000</v>
@@ -4802,21 +4820,21 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="D20" s="1">
-        <v>0.09</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="6"/>
-        <v>0.74444444444444446</v>
+        <v>0.77272727272727282</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="7"/>
-        <v>-2.5633541347699684</v>
+        <v>-2.2394751888786453</v>
       </c>
       <c r="I20" s="1">
         <v>5000</v>
@@ -4855,21 +4873,21 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="1">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>0.73333333333333339</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="7"/>
-        <v>-2.6939714779491233</v>
+        <v>-3.2812034326829149</v>
       </c>
       <c r="I21" s="1">
         <v>7500</v>
@@ -4908,21 +4926,21 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="1">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="6"/>
-        <v>0.73333333333333339</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="7"/>
-        <v>-2.6939714779491233</v>
+        <v>-5.3629753853865116</v>
       </c>
       <c r="I22" s="1">
         <v>9000</v>
@@ -4961,21 +4979,21 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="D23" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="6"/>
-        <v>0.74725274725274737</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="7"/>
-        <v>-2.5306495922971446</v>
+        <v>-7.0436503622272495</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
@@ -5014,21 +5032,21 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <v>50000</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="6"/>
-        <v>0.72527472527472536</v>
+        <v>0.40659340659340659</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="7"/>
-        <v>-2.7899491355844974</v>
+        <v>-7.8167933650819723</v>
       </c>
       <c r="I24" s="1">
         <v>25000</v>
@@ -5067,21 +5085,21 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="6"/>
-        <v>0.78260869565217384</v>
+        <v>0.40659340659340659</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="7"/>
-        <v>-2.129106618285737</v>
+        <v>-7.8167933650819723</v>
       </c>
       <c r="I25" s="1">
         <v>50000</v>
@@ -5120,21 +5138,21 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <v>200000</v>
+        <v>25000</v>
       </c>
       <c r="D26" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>0.93478260869565211</v>
+        <v>0.3820224719101124</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="7"/>
-        <v>-0.5857875220397516</v>
+        <v>-8.3582217920531523</v>
       </c>
       <c r="I26" s="1">
         <v>100000</v>
@@ -5173,21 +5191,21 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="D27" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.08</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>0.87912087912087922</v>
+        <v>0.39560439560439559</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="7"/>
-        <v>-1.1190281065829994</v>
+        <v>-8.0547778310761267</v>
       </c>
       <c r="I27" s="1">
         <v>300000</v>
@@ -5226,21 +5244,21 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="D28" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>0.84946236559139787</v>
+        <v>0.48351648351648352</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>-1.4171171452698736</v>
+        <v>-6.3117743166981235</v>
       </c>
       <c r="I28" s="1">
         <v>400000</v>
@@ -5278,6 +5296,23 @@
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f>E29/D29</f>
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="G29" s="1">
+        <f>20*LOG10(F29)</f>
+        <v>-5.3769062458515968</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5303,17 +5338,21 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <v>500000</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="e">
-        <f t="shared" ref="F30" si="10">E30/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="1" t="e">
+        <v>300000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <f>E30/D30</f>
+        <v>0.51086956521739135</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-5.8337993881967556</v>
       </c>
       <c r="O30" s="1">
         <v>500000</v>
@@ -5331,6 +5370,25 @@
       <c r="S30" s="1">
         <f t="shared" si="2"/>
         <v>-5.0084000461778793</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31" si="10">E31/D31</f>
+        <v>0.45652173913043481</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.8107707389530958</v>
       </c>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">

--- a/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
+++ b/products/measurement_reports/tone_control/measurement/measurement_tone_control.xlsx
@@ -88,10 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,11 +406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118314400"/>
-        <c:axId val="118314960"/>
+        <c:axId val="160108080"/>
+        <c:axId val="160101920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118314400"/>
+        <c:axId val="160108080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -521,12 +524,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118314960"/>
+        <c:crossAx val="160101920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118314960"/>
+        <c:axId val="160101920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -646,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118314400"/>
+        <c:crossAx val="160108080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -998,11 +1001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156474288"/>
-        <c:axId val="156474848"/>
+        <c:axId val="160103040"/>
+        <c:axId val="160109200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156474288"/>
+        <c:axId val="160103040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1121,12 +1124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156474848"/>
+        <c:crossAx val="160109200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156474848"/>
+        <c:axId val="160109200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156474288"/>
+        <c:crossAx val="160103040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,10 +1412,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1423,75 +1426,69 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>750</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7500</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1499,10 +1496,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$31</c:f>
+              <c:f>Sheet1!$G$5:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>-3.6728879389225417</c:v>
                 </c:pt>
@@ -1513,75 +1510,69 @@
                   <c:v>-7.7636034276576282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.8086081378658401</c:v>
+                  <c:v>-8.2600751021582681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.3253992444143599</c:v>
+                  <c:v>-7.9090241653668567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.4476962842890222</c:v>
+                  <c:v>-6.7491852258131217</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>-5.3484278936580214</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-3.6728879389225417</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-2.5321179195152581</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.83784322656354093</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.74648646047624689</c:v>
+                  <c:v>-2.2688889983558411</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.50221441166062175</c:v>
+                  <c:v>-1.9876926427182351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.20200653808651459</c:v>
+                  <c:v>-1.9876926427182351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.71995306543037696</c:v>
+                  <c:v>-2.1126716282582652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.6133763953290382</c:v>
+                  <c:v>-2.2394751888786453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.8644864686218674</c:v>
+                  <c:v>-3.2812034326829149</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.2394751888786453</c:v>
+                  <c:v>-5.3629753853865116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.2812034326829149</c:v>
+                  <c:v>-7.0436503622272495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.3629753853865116</c:v>
+                  <c:v>-7.8167933650819723</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.0436503622272495</c:v>
+                  <c:v>-7.8167933650819723</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.8167933650819723</c:v>
+                  <c:v>-8.3582217920531523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.8167933650819723</c:v>
+                  <c:v>-8.0547778310761267</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.3582217920531523</c:v>
+                  <c:v>-6.3117743166981235</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.0547778310761267</c:v>
+                  <c:v>-5.3769062458515968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.3117743166981235</c:v>
+                  <c:v>-5.8337993881967556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.3769062458515968</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.8337993881967556</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>-6.8107707389530958</c:v>
                 </c:pt>
               </c:numCache>
@@ -1597,11 +1588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156477088"/>
-        <c:axId val="156477648"/>
+        <c:axId val="159139872"/>
+        <c:axId val="159140432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156477088"/>
+        <c:axId val="159139872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1720,12 +1711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156477648"/>
+        <c:crossAx val="159140432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156477648"/>
+        <c:axId val="159140432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156477088"/>
+        <c:crossAx val="159139872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,15 +3611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8148</xdr:colOff>
+      <xdr:colOff>224924</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:rowOff>38795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209854</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>49305</xdr:rowOff>
+      <xdr:colOff>426630</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3939,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,27 +3945,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -4024,13 +4015,13 @@
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F5" s="1">
@@ -4077,13 +4068,13 @@
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F6" s="1">
@@ -4091,7 +4082,7 @@
         <v>0.56321839080459779</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G31" si="0">20*LOG10(F6)</f>
+        <f t="shared" ref="G6:G18" si="0">20*LOG10(F6)</f>
         <v>-4.9864634518020958</v>
       </c>
       <c r="I6" s="1">
@@ -4130,20 +4121,20 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F18" si="3">E7/D7</f>
         <v>0.40909090909090906</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>-7.7636034276576282</v>
       </c>
@@ -4183,22 +4174,22 @@
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.5000000000000003E-2</v>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>0.40697674418604657</v>
+        <v>0.38636363636363641</v>
       </c>
       <c r="G8" s="1">
         <f>20*LOG10(F8)</f>
-        <v>-7.8086081378658401</v>
+        <v>-8.2600751021582681</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
@@ -4236,22 +4227,22 @@
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="3">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E9" s="1">
-        <v>4.2000000000000003E-2</v>
+      <c r="E9" s="5">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>0.48275862068965525</v>
+        <v>0.40229885057471271</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>-6.3253992444143599</v>
+        <v>-7.9090241653668567</v>
       </c>
       <c r="I9" s="1">
         <v>75</v>
@@ -4289,22 +4280,22 @@
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.7E-2</v>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.04</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>0.53409090909090917</v>
+        <v>0.45977011494252878</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>-5.4476962842890222</v>
+        <v>-6.7491852258131217</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -4342,22 +4333,22 @@
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E11" s="1">
-        <v>5.7000000000000002E-2</v>
+      <c r="E11" s="5">
+        <v>4.7E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>0.65517241379310354</v>
+        <v>0.54022988505747127</v>
       </c>
       <c r="G11" s="1">
         <f>20*LOG10(F11)</f>
-        <v>-3.6728879389225417</v>
+        <v>-5.3484278936580214</v>
       </c>
       <c r="I11" s="1">
         <v>200</v>
@@ -4395,22 +4386,22 @@
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3">
+        <v>300</v>
+      </c>
+      <c r="D12" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E12" s="1">
-        <v>6.5000000000000002E-2</v>
+      <c r="E12" s="5">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>0.74712643678160928</v>
+        <v>0.65517241379310354</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5321179195152581</v>
+        <v>-3.6728879389225417</v>
       </c>
       <c r="I12" s="1">
         <v>300</v>
@@ -4448,22 +4439,22 @@
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>400</v>
+      </c>
+      <c r="D13" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E13" s="1">
-        <v>7.9000000000000001E-2</v>
+      <c r="E13" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>0.90804597701149437</v>
+        <v>0.74712643678160928</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.83784322656354093</v>
+        <v>-2.5321179195152581</v>
       </c>
       <c r="I13" s="1">
         <v>400</v>
@@ -4501,22 +4492,22 @@
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>300</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>7.8E-2</v>
+      <c r="C14" s="3">
+        <v>500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>0.91764705882352937</v>
+        <v>0.77011494252873569</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.74648646047624689</v>
+        <v>-2.2688889983558411</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
@@ -4554,22 +4545,22 @@
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>400</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8.4000000000000005E-2</v>
+      <c r="C15" s="3">
+        <v>750</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>0.94382022471910121</v>
+        <v>0.79545454545454553</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.50221441166062175</v>
+        <v>-1.9876926427182351</v>
       </c>
       <c r="I15" s="1">
         <v>750</v>
@@ -4607,22 +4598,22 @@
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>500</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8.5000000000000006E-2</v>
+      <c r="C16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>0.9770114942528737</v>
+        <v>0.79545454545454553</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20200653808651459</v>
+        <v>-1.9876926427182351</v>
       </c>
       <c r="I16" s="1">
         <v>1000</v>
@@ -4660,22 +4651,22 @@
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>750</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E17" s="1">
-        <v>8.1000000000000003E-2</v>
+      <c r="E17" s="5">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>0.92045454545454553</v>
+        <v>0.78409090909090917</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.71995306543037696</v>
+        <v>-2.1126716282582652</v>
       </c>
       <c r="I17" s="1">
         <v>2000</v>
@@ -4713,22 +4704,22 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E18" s="1">
-        <v>8.2000000000000003E-2</v>
+      <c r="E18" s="5">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>0.93181818181818188</v>
+        <v>0.77272727272727282</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.6133763953290382</v>
+        <v>-2.2394751888786453</v>
       </c>
       <c r="I18" s="1">
         <v>2500</v>
@@ -4766,22 +4757,22 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7.0999999999999994E-2</v>
+      <c r="C19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F28" si="6">E19/D19</f>
-        <v>0.80681818181818177</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:G28" si="7">20*LOG10(F19)</f>
-        <v>-1.8644864686218674</v>
+        <v>-3.2812034326829149</v>
       </c>
       <c r="I19" s="1">
         <v>3000</v>
@@ -4819,22 +4810,22 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6.8000000000000005E-2</v>
+      <c r="C20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="6"/>
-        <v>0.77272727272727282</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="7"/>
-        <v>-2.2394751888786453</v>
+        <v>-5.3629753853865116</v>
       </c>
       <c r="I20" s="1">
         <v>5000</v>
@@ -4872,22 +4863,22 @@
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6.0999999999999999E-2</v>
+      <c r="C21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.04</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>0.6853932584269663</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="7"/>
-        <v>-3.2812034326829149</v>
+        <f>20*LOG10(F21)</f>
+        <v>-7.0436503622272495</v>
       </c>
       <c r="I21" s="1">
         <v>7500</v>
@@ -4925,22 +4916,22 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4.8000000000000001E-2</v>
+      <c r="C22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="6"/>
-        <v>0.5393258426966292</v>
+        <v>0.40659340659340659</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="7"/>
-        <v>-5.3629753853865116</v>
+        <v>-7.8167933650819723</v>
       </c>
       <c r="I22" s="1">
         <v>9000</v>
@@ -4978,22 +4969,22 @@
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.04</v>
+      <c r="C23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="6"/>
-        <v>0.44444444444444448</v>
+        <v>0.40659340659340659</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="7"/>
-        <v>-7.0436503622272495</v>
+        <v>-7.8167933650819723</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
@@ -5031,22 +5022,22 @@
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.6999999999999998E-2</v>
+      <c r="C24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="6"/>
-        <v>0.40659340659340659</v>
+        <v>0.3820224719101124</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="7"/>
-        <v>-7.8167933650819723</v>
+        <v>-8.3582217920531523</v>
       </c>
       <c r="I24" s="1">
         <v>25000</v>
@@ -5084,22 +5075,22 @@
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D25" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E25" s="1">
-        <v>3.6999999999999998E-2</v>
+      <c r="E25" s="5">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="6"/>
-        <v>0.40659340659340659</v>
+        <v>0.39560439560439559</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="7"/>
-        <v>-7.8167933650819723</v>
+        <v>-8.0547778310761267</v>
       </c>
       <c r="I25" s="1">
         <v>50000</v>
@@ -5137,22 +5128,22 @@
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3.4000000000000002E-2</v>
+      <c r="C26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>0.3820224719101124</v>
+        <v>0.48351648351648352</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="7"/>
-        <v>-8.3582217920531523</v>
+        <v>-6.3117743166981235</v>
       </c>
       <c r="I26" s="1">
         <v>100000</v>
@@ -5190,22 +5181,22 @@
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D27" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E27" s="1">
-        <v>3.5999999999999997E-2</v>
+      <c r="E27" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>0.39560439560439559</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="7"/>
-        <v>-8.0547778310761267</v>
+        <v>-5.3769062458515968</v>
       </c>
       <c r="I27" s="1">
         <v>300000</v>
@@ -5243,22 +5234,22 @@
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D28" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4.3999999999999997E-2</v>
+      <c r="C28" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.7E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>0.48351648351648352</v>
+        <v>0.51086956521739135</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>-6.3117743166981235</v>
+        <v>-5.8337993881967556</v>
       </c>
       <c r="I28" s="1">
         <v>400000</v>
@@ -5296,22 +5287,22 @@
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4.9000000000000002E-2</v>
+      <c r="C29" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F29" s="1">
         <f>E29/D29</f>
-        <v>0.53846153846153855</v>
+        <v>0.45652173913043481</v>
       </c>
       <c r="G29" s="1">
         <f>20*LOG10(F29)</f>
-        <v>-5.3769062458515968</v>
+        <v>-6.8107707389530958</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5337,23 +5328,11 @@
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>300000</v>
-      </c>
-      <c r="D30" s="1">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F30" s="1">
-        <f>E30/D30</f>
-        <v>0.51086956521739135</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.8337993881967556</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="O30" s="1">
         <v>500000</v>
       </c>
@@ -5373,23 +5352,11 @@
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ref="F31" si="10">E31/D31</f>
-        <v>0.45652173913043481</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.8107707389530958</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
